--- a/final_data/xlsx/results_289_sig_right.xlsx
+++ b/final_data/xlsx/results_289_sig_right.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelruland/Documents/studium_paderborn/Bachelorarbeit/BA_thesis/final_data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF916F65-3DC9-154C-96AF-46509478CE46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6A608-CFC2-D74D-831F-2C91DA6EEAE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,13 @@
     <sheet name="results_289_sig_right" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -279,7 +286,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -768,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -818,19 +825,19 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -866,12 +873,12 @@
     <tableColumn id="2" xr3:uid="{5E2CEDC1-98C2-0749-A1C0-274748D15C81}" name="succedent"/>
     <tableColumn id="3" xr3:uid="{DA3D2E1D-756D-E34F-9C66-7528B2B886CA}" name="realcon"/>
     <tableColumn id="4" xr3:uid="{C836139D-AC0C-6A43-A626-7A4E58F68DBA}" name="realocc"/>
-    <tableColumn id="5" xr3:uid="{C500935D-6B39-C843-80B6-FC9720537142}" name="realdur" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{12C84F19-346D-A740-BD2A-D23A54B50B09}" name="p_con" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{095778CB-2844-9243-BF25-533B8C332BC7}" name="p_occ" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{2AEF3977-2E02-DD43-997F-20E634ECFBCA}" name="p_dur" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C500935D-6B39-C843-80B6-FC9720537142}" name="realdur" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{12C84F19-346D-A740-BD2A-D23A54B50B09}" name="p_con" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{095778CB-2844-9243-BF25-533B8C332BC7}" name="p_occ" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2AEF3977-2E02-DD43-997F-20E634ECFBCA}" name="p_dur" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{DDB4F8F0-57D3-334F-873F-9535B65DA198}" name="null_obs"/>
-    <tableColumn id="10" xr3:uid="{57451580-B76F-1B41-86CE-491EF784ADBC}" name="num_sig" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{57451580-B76F-1B41-86CE-491EF784ADBC}" name="num_sig" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1178,13 +1185,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="F8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
